--- a/Gestion de projet/Estimation des charges Projet PILAF .xlsx
+++ b/Gestion de projet/Estimation des charges Projet PILAF .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\gestion de projet\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A35298-D430-48BF-8683-6345F13A8AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43519779-9C33-46E3-A35D-4FB273D1CE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="EF">Feuil1!$C$41</definedName>
     <definedName name="TCF">Feuil1!$C$22</definedName>
-    <definedName name="UUCP">Feuil1!$E$78</definedName>
+    <definedName name="UUCP">Feuil1!$E$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="146">
   <si>
     <t>ESTIMATION DE PROJET UCP</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>Réceptionner une livraison</t>
+  </si>
+  <si>
+    <t>Se connecter à l'application</t>
+  </si>
+  <si>
+    <t>Enregistrer une vente</t>
   </si>
 </sst>
 </file>
@@ -1309,9 +1315,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H92"/>
+  <dimension ref="A2:H94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
@@ -2380,113 +2386,141 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="55">
+    <row r="77" spans="2:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B77" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="54">
         <v>3</v>
       </c>
       <c r="D77" s="55">
         <v>10</v>
       </c>
       <c r="E77" s="55">
-        <f>C77+D77</f>
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="54">
+        <v>3</v>
+      </c>
+      <c r="D78" s="55">
+        <v>10</v>
+      </c>
+      <c r="E78" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="55">
+        <v>3</v>
+      </c>
+      <c r="D79" s="55">
+        <v>10</v>
+      </c>
+      <c r="E79" s="55">
+        <f>C79+D79</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="45"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="5">
-        <f>SUM(E57:E77)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="25" t="s">
+      <c r="C80" s="45"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="5">
+        <f>SUM(E57:E79)</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="26"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="27"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="29" t="s">
+      <c r="C83" s="26"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="85" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C85" s="30">
         <f>UUCP*TCF*EF</f>
-        <v>235.14399999999998</v>
-      </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="24"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="4" t="s">
+        <v>260.83199999999999</v>
+      </c>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="24"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="32" t="s">
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C89" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D89" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" s="33">
-        <f>C83*C91</f>
-        <v>4702.8799999999992</v>
-      </c>
-      <c r="C88" s="33">
-        <f>B88/6</f>
-        <v>783.81333333333316</v>
-      </c>
-      <c r="D88" s="33">
-        <f>C88/12</f>
-        <v>65.317777777777764</v>
-      </c>
-      <c r="E88" s="4">
-        <f>C88/150</f>
-        <v>5.2254222222222211</v>
-      </c>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="33">
+        <f>C85*C93</f>
+        <v>5216.6399999999994</v>
+      </c>
+      <c r="C90" s="33">
+        <f>B90/6</f>
+        <v>869.43999999999994</v>
+      </c>
+      <c r="D90" s="33">
+        <f>C90/12</f>
+        <v>72.453333333333333</v>
+      </c>
+      <c r="E90" s="4">
+        <f>C90/150</f>
+        <v>5.796266666666666</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>101</v>
       </c>
-      <c r="C91">
+      <c r="C93">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>102</v>
       </c>
     </row>
